--- a/dados/csv/2023/2/sint_resumo_por_modalidade_2023.xlsx
+++ b/dados/csv/2023/2/sint_resumo_por_modalidade_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>geral_modalidade</t>
   </si>
@@ -22,16 +22,19 @@
     <t>total</t>
   </si>
   <si>
-    <t>valor_arrecadado</t>
+    <t>arrecadado</t>
   </si>
   <si>
     <t>total_sucesso</t>
   </si>
   <si>
-    <t>valor_arrecadado_sucesso</t>
+    <t>arrecadado_sucesso</t>
   </si>
   <si>
     <t>taxa_sucesso</t>
+  </si>
+  <si>
+    <t>media_sucesso</t>
   </si>
   <si>
     <t>aon</t>
@@ -404,7 +407,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -413,9 +416,10 @@
     <col min="3" max="3" width="9.140625" style="1"/>
     <col min="5" max="5" width="9.140625" style="1"/>
     <col min="6" max="6" width="9.140625" style="2"/>
+    <col min="7" max="7" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -434,10 +438,13 @@
       <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2">
         <v>1335</v>
@@ -454,10 +461,13 @@
       <c r="F2" s="2">
         <v>0.6217228464419475</v>
       </c>
+      <c r="G2" s="1">
+        <v>28991.90340641329</v>
+      </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>1468</v>
@@ -474,10 +484,13 @@
       <c r="F3" s="2">
         <v>0.9420980926430518</v>
       </c>
+      <c r="G3" s="1">
+        <v>13277.02960054888</v>
+      </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4">
         <v>684</v>
@@ -493,6 +506,9 @@
       </c>
       <c r="F4" s="2">
         <v>0.2222222222222222</v>
+      </c>
+      <c r="G4" s="1">
+        <v>284.1247220709527</v>
       </c>
     </row>
   </sheetData>
